--- a/Test related files/TestCases_AddContact.xlsx
+++ b/Test related files/TestCases_AddContact.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615767F7-67E8-433B-BEC9-8B238479EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B103A4B-3C71-4FB4-82BE-AF8D4083C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>The “Add Contact” Window should appear on top of the Main Window</t>
-  </si>
-  <si>
-    <t>The "Add Contact" window opens at the top-left of the screen</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>AW-003</t>
@@ -128,9 +122,6 @@
     <t>Birth Date input field default value should be the current day</t>
   </si>
   <si>
-    <t>Default Birth Date value is 1/1/0001</t>
-  </si>
-  <si>
     <t>AW-006</t>
   </si>
   <si>
@@ -159,7 +150,7 @@
     <t>Pressing the “Add” button in the “Add Contact” window with an empty Full Name or Phone No. Input fields should give a message informing that the fields must not be empty</t>
   </si>
   <si>
-    <t>Error is thrown and an empty contact is added</t>
+    <t>Message informing about empty fields appears</t>
   </si>
   <si>
     <t>AW-008</t>
@@ -182,6 +173,9 @@
   </si>
   <si>
     <t>A new contact is added with the providded data</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>AW-009</t>
@@ -1070,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,18 +1139,18 @@
         <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="99.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>10</v>
@@ -1164,10 +1158,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>12</v>
@@ -1175,21 +1169,21 @@
     </row>
     <row r="5" spans="1:8" ht="99.75" customHeight="1">
       <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -1197,43 +1191,43 @@
     </row>
     <row r="6" spans="1:8" ht="99.75" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="99.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>12</v>
@@ -1241,69 +1235,69 @@
     </row>
     <row r="8" spans="1:8" ht="125.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="125.25" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="99.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>12</v>
